--- a/excel/宝宝表.xlsx
+++ b/excel/宝宝表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\资源\2.0版本\配置表\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62B4275-C207-4DFE-A9BC-40A8AC3A2C0A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="25905" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="actorConfig" sheetId="1" r:id="rId1"/>
@@ -306,7 +300,7 @@
     <t>actorList10120_png</t>
   </si>
   <si>
-    <t>actorIconGreyState10120_png</t>
+    <t>actorIconGreyState10010_png</t>
   </si>
   <si>
     <t>蜥蜴</t>
@@ -427,6 +421,209 @@
     <t>actor10190</t>
   </si>
   <si>
+    <t>actorIcon10170_png</t>
+  </si>
+  <si>
+    <t>actorList10170_png</t>
+  </si>
+  <si>
+    <t>QactorList10091_png</t>
+  </si>
+  <si>
+    <t>babyShadow_json.babyShadow25</t>
+  </si>
+  <si>
+    <t>actorIconGreyState10170_png</t>
+  </si>
+  <si>
+    <t>企鹅</t>
+  </si>
+  <si>
+    <t>Penguin</t>
+  </si>
+  <si>
+    <t>Chapter 9, 5000 points.</t>
+  </si>
+  <si>
+    <t>Monster drop speed reduced by3 SEC.</t>
+  </si>
+  <si>
+    <t>actor10060</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>actorIcon10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0_png</t>
+    </r>
+  </si>
+  <si>
+    <t>actorList10060_png</t>
+  </si>
+  <si>
+    <t>QactorList10060_png</t>
+  </si>
+  <si>
+    <t>babyShadow_json.babyShadow3</t>
+  </si>
+  <si>
+    <t>actorIconGreyState10060_png</t>
+  </si>
+  <si>
+    <t>变异跳蚤</t>
+  </si>
+  <si>
+    <t>KIMI</t>
+  </si>
+  <si>
+    <t>Obtained through chapter 9.</t>
+  </si>
+  <si>
+    <t>actor10140</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>actorIcon10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0_png</t>
+    </r>
+  </si>
+  <si>
+    <t>actorList10040_png</t>
+  </si>
+  <si>
+    <t>QactorList10041_png</t>
+  </si>
+  <si>
+    <t>babyShadow_json.babyShadow23</t>
+  </si>
+  <si>
+    <t>actorIconGreyState10040_png</t>
+  </si>
+  <si>
+    <t>泡泡鱼</t>
+  </si>
+  <si>
+    <t>pao</t>
+  </si>
+  <si>
+    <t>Chapter 11, 6000 points.</t>
+  </si>
+  <si>
+    <t>Blisters destroy monsters.</t>
+  </si>
+  <si>
+    <t>actor10030</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>actorIcon10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0_png</t>
+    </r>
+  </si>
+  <si>
+    <t>actorList10030_png</t>
+  </si>
+  <si>
+    <t>QactorList10030_png</t>
+  </si>
+  <si>
+    <t>babyShadow_json.babyShadow15</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>actorIconGreyState10030_png</t>
+    </r>
+  </si>
+  <si>
+    <t>雷宝宝</t>
+  </si>
+  <si>
+    <t>lei</t>
+  </si>
+  <si>
+    <t>Chapter12, 80 batters.</t>
+  </si>
+  <si>
+    <t>Lightning destroys monsters.</t>
+  </si>
+  <si>
+    <t>actor10090</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -443,44 +640,44 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>70_png</t>
-    </r>
-  </si>
-  <si>
-    <t>actorList10170_png</t>
-  </si>
-  <si>
-    <t>QactorList10091_png</t>
-  </si>
-  <si>
-    <t>babyShadow_json.babyShadow25</t>
-  </si>
-  <si>
-    <t>actorIconGreyState10170_png</t>
-  </si>
-  <si>
-    <t>企鹅</t>
-  </si>
-  <si>
-    <t>Penguin</t>
-  </si>
-  <si>
-    <t>Chapter 9, 5000 points.</t>
-  </si>
-  <si>
-    <t>Monster drop speed reduced by3 SEC.</t>
-  </si>
-  <si>
-    <t>actor10060</t>
+      <t>90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_png</t>
+    </r>
+  </si>
+  <si>
+    <t>actorList10090_png</t>
+  </si>
+  <si>
+    <t>QactorList10090_png</t>
+  </si>
+  <si>
+    <t>babyShadow_json.babyShadow13</t>
+  </si>
+  <si>
+    <t>actorIconGreyState10090_png</t>
+  </si>
+  <si>
+    <t>火男</t>
+  </si>
+  <si>
+    <t>huo</t>
+  </si>
+  <si>
+    <t>Chapter 13, 6000 points.</t>
+  </si>
+  <si>
+    <t>Fire destroys monsters.</t>
+  </si>
+  <si>
+    <t>actor10080</t>
   </si>
   <si>
     <r>
@@ -499,7 +696,7 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t>06</t>
+      <t>08</t>
     </r>
     <r>
       <rPr>
@@ -512,28 +709,276 @@
     </r>
   </si>
   <si>
-    <t>actorList10060_png</t>
-  </si>
-  <si>
-    <t>QactorList10060_png</t>
-  </si>
-  <si>
-    <t>babyShadow_json.babyShadow3</t>
-  </si>
-  <si>
-    <t>actorIconGreyState10060_png</t>
-  </si>
-  <si>
-    <t>变异跳蚤</t>
-  </si>
-  <si>
-    <t>KIMI</t>
-  </si>
-  <si>
-    <t>Obtained through chapter 9.</t>
-  </si>
-  <si>
-    <t>actor10140</t>
+    <t>actorList10080_png</t>
+  </si>
+  <si>
+    <t>QactorList10080_png</t>
+  </si>
+  <si>
+    <t>babyShadow_json.babyShadow30</t>
+  </si>
+  <si>
+    <t>actorIconGreyState10080_png</t>
+  </si>
+  <si>
+    <t>变异企鹅</t>
+  </si>
+  <si>
+    <t>BIBI</t>
+  </si>
+  <si>
+    <t>Chapter 14, 50 batters.</t>
+  </si>
+  <si>
+    <t>actor10160</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>actorIcon101</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0_png</t>
+    </r>
+  </si>
+  <si>
+    <t>actorList10140_png</t>
+  </si>
+  <si>
+    <t>QactorList10061_png</t>
+  </si>
+  <si>
+    <t>babyShadow_json.babyShadow21</t>
+  </si>
+  <si>
+    <t>actorIconGreyState10140_png</t>
+  </si>
+  <si>
+    <t>变异幽灵武士</t>
+  </si>
+  <si>
+    <t>KING</t>
+  </si>
+  <si>
+    <t>Chapter 15, 6000 points.</t>
+  </si>
+  <si>
+    <t>actor10170</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>actorIcon100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0_png</t>
+    </r>
+  </si>
+  <si>
+    <t>actorList10070_png</t>
+  </si>
+  <si>
+    <t>QactorList10071_png</t>
+  </si>
+  <si>
+    <t>babyShadow_json.babyShadow22</t>
+  </si>
+  <si>
+    <t>actorIconGreyState10070_png</t>
+  </si>
+  <si>
+    <t>野蛮人</t>
+  </si>
+  <si>
+    <t>MAN</t>
+  </si>
+  <si>
+    <t>Chapter16. 90 batters.</t>
+  </si>
+  <si>
+    <t>Double CoMbo.</t>
+  </si>
+  <si>
+    <t>actor10203</t>
+  </si>
+  <si>
+    <t>actorIcon10103_png</t>
+  </si>
+  <si>
+    <t>actorList10190_png</t>
+  </si>
+  <si>
+    <t>QactorList13040_png</t>
+  </si>
+  <si>
+    <t>babyShadow_json.babyShadow28</t>
+  </si>
+  <si>
+    <t>actorIconGreyState10103_png</t>
+  </si>
+  <si>
+    <t>小飞龙</t>
+  </si>
+  <si>
+    <t>FEI</t>
+  </si>
+  <si>
+    <t>Chapter 18, 10000 points.</t>
+  </si>
+  <si>
+    <t>Double integral.</t>
+  </si>
+  <si>
+    <t>actor10204</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>actorIcon1010</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_png</t>
+    </r>
+  </si>
+  <si>
+    <t>actorList10180_png</t>
+  </si>
+  <si>
+    <t>QactorList13030_png</t>
+  </si>
+  <si>
+    <t>babyShadow_json.babyShadow27</t>
+  </si>
+  <si>
+    <t>actorIconGreyState10104_png</t>
+  </si>
+  <si>
+    <t>变异蜥蜴</t>
+  </si>
+  <si>
+    <t>DKG</t>
+  </si>
+  <si>
+    <t>（Endless mode）7000points.</t>
+  </si>
+  <si>
+    <t>actor10120</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>actorIcon100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0_png</t>
+    </r>
+  </si>
+  <si>
+    <t>actorList10020_png</t>
+  </si>
+  <si>
+    <t>QactorList10021_png</t>
+  </si>
+  <si>
+    <t>babyShadow_json.babyShadow20</t>
+  </si>
+  <si>
+    <t>actorIconGreyState10020_png</t>
+  </si>
+  <si>
+    <t>变异招财猫</t>
+  </si>
+  <si>
+    <t>KuQ</t>
+  </si>
+  <si>
+    <t>（Endless mode）80 batters.</t>
+  </si>
+  <si>
+    <t>Turn a monster into a lucky monster.</t>
+  </si>
+  <si>
+    <t>actor10200</t>
   </si>
   <si>
     <r>
@@ -552,7 +997,7 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t>04</t>
+      <t>16</t>
     </r>
     <r>
       <rPr>
@@ -565,328 +1010,16 @@
     </r>
   </si>
   <si>
-    <t>actorList10040_png</t>
-  </si>
-  <si>
-    <t>QactorList10041_png</t>
-  </si>
-  <si>
-    <t>babyShadow_json.babyShadow23</t>
-  </si>
-  <si>
-    <t>actorIconGreyState10040_png</t>
-  </si>
-  <si>
-    <t>泡泡鱼</t>
-  </si>
-  <si>
-    <t>pao</t>
-  </si>
-  <si>
-    <t>Chapter 11, 6000 points.</t>
-  </si>
-  <si>
-    <t>Blisters destroy monsters.</t>
-  </si>
-  <si>
-    <t>actor10030</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>actorIcon10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>03</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0_png</t>
-    </r>
-  </si>
-  <si>
-    <t>actorList10030_png</t>
-  </si>
-  <si>
-    <t>QactorList10030_png</t>
-  </si>
-  <si>
-    <t>babyShadow_json.babyShadow15</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>actorIconGreyState10030_png</t>
-    </r>
-  </si>
-  <si>
-    <t>雷宝宝</t>
-  </si>
-  <si>
-    <t>lei</t>
-  </si>
-  <si>
-    <t>Chapter12, 80 batters.</t>
-  </si>
-  <si>
-    <t>Lightning destroys monsters.</t>
-  </si>
-  <si>
-    <t>actor10090</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>actorIcon100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>90</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>_png</t>
-    </r>
-  </si>
-  <si>
-    <t>actorList10090_png</t>
-  </si>
-  <si>
-    <t>QactorList10090_png</t>
-  </si>
-  <si>
-    <t>babyShadow_json.babyShadow13</t>
-  </si>
-  <si>
-    <t>actorIconGreyState10090_png</t>
-  </si>
-  <si>
-    <t>火男</t>
-  </si>
-  <si>
-    <t>huo</t>
-  </si>
-  <si>
-    <t>Chapter 13, 6000 points.</t>
-  </si>
-  <si>
-    <t>Fire destroys monsters.</t>
-  </si>
-  <si>
-    <t>actor10080</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>actorIcon10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>08</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0_png</t>
-    </r>
-  </si>
-  <si>
-    <t>actorList10080_png</t>
-  </si>
-  <si>
-    <t>QactorList10080_png</t>
-  </si>
-  <si>
-    <t>babyShadow_json.babyShadow30</t>
-  </si>
-  <si>
-    <t>actorIconGreyState10080_png</t>
-  </si>
-  <si>
-    <t>变异企鹅</t>
-  </si>
-  <si>
-    <t>BIBI</t>
-  </si>
-  <si>
-    <t>Chapter 14, 50 batters.</t>
-  </si>
-  <si>
-    <t>actor10160</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>actorIcon101</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0_png</t>
-    </r>
-  </si>
-  <si>
-    <t>actorList10140_png</t>
-  </si>
-  <si>
-    <t>QactorList10061_png</t>
-  </si>
-  <si>
-    <t>babyShadow_json.babyShadow21</t>
-  </si>
-  <si>
-    <t>actorIconGreyState10140_png</t>
-  </si>
-  <si>
-    <t>变异幽灵武士</t>
-  </si>
-  <si>
-    <t>KING</t>
-  </si>
-  <si>
-    <t>Chapter 15, 6000 points.</t>
-  </si>
-  <si>
-    <t>actor10170</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>actorIcon100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0_png</t>
-    </r>
-  </si>
-  <si>
-    <t>actorList10070_png</t>
-  </si>
-  <si>
-    <t>QactorList10071_png</t>
-  </si>
-  <si>
-    <t>babyShadow_json.babyShadow22</t>
-  </si>
-  <si>
-    <t>actorIconGreyState10070_png</t>
-  </si>
-  <si>
-    <t>野蛮人</t>
-  </si>
-  <si>
-    <t>MAN</t>
-  </si>
-  <si>
-    <t>Chapter16. 90 batters.</t>
-  </si>
-  <si>
-    <t>Double CoMbo.</t>
-  </si>
-  <si>
-    <t>actor10203</t>
-  </si>
-  <si>
-    <t>actorIcon10103_png</t>
-  </si>
-  <si>
-    <t>actorList10190_png</t>
-  </si>
-  <si>
-    <t>QactorList13040_png</t>
-  </si>
-  <si>
-    <t>babyShadow_json.babyShadow28</t>
-  </si>
-  <si>
-    <t>actorIconGreyState10103_png</t>
+    <t>actorList10160_png</t>
+  </si>
+  <si>
+    <t>QactorList10101_png</t>
+  </si>
+  <si>
+    <t>babyShadow_json.babyShadow24</t>
+  </si>
+  <si>
+    <t>actorIconGreyState10160_png</t>
   </si>
   <si>
     <t>招财猫</t>
@@ -895,10 +1028,8 @@
     <t>Cat</t>
   </si>
   <si>
-    <t>Chapter 17, 80 batters.</t>
-  </si>
-  <si>
-    <t>Turn a monster into a lucky monster.</t>
+    <t xml:space="preserve">Check-in get
+</t>
   </si>
   <si>
     <t>actor10100</t>
@@ -917,168 +1048,6 @@
   </si>
   <si>
     <t>actorIconGreyState10100_png</t>
-  </si>
-  <si>
-    <t>小飞龙</t>
-  </si>
-  <si>
-    <t>FEI</t>
-  </si>
-  <si>
-    <t>Chapter 18, 10000 points.</t>
-  </si>
-  <si>
-    <t>Double integral.</t>
-  </si>
-  <si>
-    <t>actor10204</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>actorIcon1010</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>_png</t>
-    </r>
-  </si>
-  <si>
-    <t>actorList10180_png</t>
-  </si>
-  <si>
-    <t>QactorList13030_png</t>
-  </si>
-  <si>
-    <t>babyShadow_json.babyShadow27</t>
-  </si>
-  <si>
-    <t>actorIconGreyState10104_png</t>
-  </si>
-  <si>
-    <t>变异蜥蜴</t>
-  </si>
-  <si>
-    <t>DKG</t>
-  </si>
-  <si>
-    <t>（Endless mode）7000points.</t>
-  </si>
-  <si>
-    <t>actor10120</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>actorIcon100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0_png</t>
-    </r>
-  </si>
-  <si>
-    <t>actorList10020_png</t>
-  </si>
-  <si>
-    <t>QactorList10021_png</t>
-  </si>
-  <si>
-    <t>babyShadow_json.babyShadow20</t>
-  </si>
-  <si>
-    <t>actorIconGreyState10020_png</t>
-  </si>
-  <si>
-    <t>变异招财猫</t>
-  </si>
-  <si>
-    <t>KuQ</t>
-  </si>
-  <si>
-    <t>（Endless mode）80 batters.</t>
-  </si>
-  <si>
-    <t>actor10200</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>actorIcon10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0_png</t>
-    </r>
-  </si>
-  <si>
-    <t>actorList10160_png</t>
-  </si>
-  <si>
-    <t>QactorList10101_png</t>
-  </si>
-  <si>
-    <t>babyShadow_json.babyShadow24</t>
-  </si>
-  <si>
-    <t>actorIconGreyState10160_png</t>
   </si>
   <si>
     <t>Kro</t>
@@ -1182,8 +1151,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1210,33 +1185,351 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1244,13 +1537,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1276,23 +1811,64 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1579,44 +2155,44 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AB42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K20" sqref="A20:XFD20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="4" width="13.109375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="15.21875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="13.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.21875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="46.6640625" style="1" customWidth="1"/>
-    <col min="12" max="13" width="18.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="22.6640625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="13.1083333333333" style="1" customWidth="1"/>
+    <col min="5" max="6" width="15.2166666666667" style="1" customWidth="1"/>
+    <col min="7" max="8" width="13.1083333333333" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.1083333333333" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.2166666666667" style="1" customWidth="1"/>
+    <col min="11" max="11" width="46.6666666666667" style="1" customWidth="1"/>
+    <col min="12" max="13" width="18.3333333333333" style="1" customWidth="1"/>
+    <col min="14" max="14" width="22.6666666666667" style="1" customWidth="1"/>
     <col min="15" max="15" width="23" style="1" customWidth="1"/>
-    <col min="16" max="16" width="21.21875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="21.2166666666667" style="1" customWidth="1"/>
     <col min="17" max="17" width="35" style="1" customWidth="1"/>
-    <col min="18" max="18" width="21.21875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="21.21875" style="2" customWidth="1"/>
-    <col min="20" max="20" width="33.44140625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="21.21875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="17.109375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="22.44140625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="11.6640625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="12.21875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="21.2166666666667" style="1" customWidth="1"/>
+    <col min="19" max="19" width="21.2166666666667" style="2" customWidth="1"/>
+    <col min="20" max="20" width="26.175" style="1" customWidth="1"/>
+    <col min="21" max="21" width="21.2166666666667" style="1" customWidth="1"/>
+    <col min="22" max="22" width="17.1083333333333" style="1" customWidth="1"/>
+    <col min="23" max="23" width="22.4416666666667" style="1" customWidth="1"/>
+    <col min="24" max="24" width="11.6666666666667" style="1" customWidth="1"/>
+    <col min="25" max="25" width="12.2166666666667" style="1" customWidth="1"/>
     <col min="26" max="37" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="1" ht="57" spans="1:28">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1686,7 +2262,7 @@
       <c r="AA1" s="4"/>
       <c r="AB1" s="4"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.25" spans="1:28">
       <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
@@ -1756,7 +2332,7 @@
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
     </row>
-    <row r="3" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="27" customHeight="1" spans="1:28">
       <c r="A3" s="3">
         <v>10010</v>
       </c>
@@ -1814,7 +2390,7 @@
       <c r="S3" s="7">
         <v>0</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="T3" s="5" t="s">
         <v>50</v>
       </c>
       <c r="U3" s="5"/>
@@ -1826,7 +2402,7 @@
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
     </row>
-    <row r="4" spans="1:28" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="25.05" customHeight="1" spans="1:25">
       <c r="A4" s="3">
         <v>10070</v>
       </c>
@@ -1882,7 +2458,7 @@
       <c r="S4" s="7">
         <v>0</v>
       </c>
-      <c r="T4" s="8" t="s">
+      <c r="T4" s="5" t="s">
         <v>60</v>
       </c>
       <c r="U4" s="5"/>
@@ -1891,7 +2467,7 @@
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
     </row>
-    <row r="5" spans="1:28" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="5" ht="15.75" spans="1:20">
       <c r="A5" s="5">
         <v>10110</v>
       </c>
@@ -1944,14 +2520,14 @@
       <c r="R5" s="5">
         <v>10010</v>
       </c>
-      <c r="S5" s="9">
+      <c r="S5" s="8">
         <v>400</v>
       </c>
-      <c r="T5" s="8" t="s">
+      <c r="T5" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="22.05" customHeight="1" spans="1:28">
       <c r="A6" s="3">
         <v>10020</v>
       </c>
@@ -2007,7 +2583,7 @@
       <c r="S6" s="7">
         <v>1400</v>
       </c>
-      <c r="T6" s="8" t="s">
+      <c r="T6" s="5" t="s">
         <v>77</v>
       </c>
       <c r="U6" s="5"/>
@@ -2019,7 +2595,7 @@
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
     </row>
-    <row r="7" spans="1:28" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="22.95" customHeight="1" spans="1:25">
       <c r="A7" s="3">
         <v>10040</v>
       </c>
@@ -2075,7 +2651,7 @@
       <c r="S7" s="7">
         <v>1200</v>
       </c>
-      <c r="T7" s="8" t="s">
+      <c r="T7" s="5" t="s">
         <v>87</v>
       </c>
       <c r="U7" s="5"/>
@@ -2084,7 +2660,7 @@
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" ht="14.25" spans="1:20">
       <c r="A8" s="3">
         <v>10190</v>
       </c>
@@ -2135,16 +2711,16 @@
         <v>96</v>
       </c>
       <c r="R8" s="3">
-        <v>10190</v>
+        <v>10210</v>
       </c>
       <c r="S8" s="2">
         <v>3000</v>
       </c>
-      <c r="T8" s="8" t="s">
+      <c r="T8" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" ht="21" customHeight="1" spans="1:25">
       <c r="A9" s="3">
         <v>10060</v>
       </c>
@@ -2200,7 +2776,7 @@
       <c r="S9" s="7">
         <v>900</v>
       </c>
-      <c r="T9" s="8" t="s">
+      <c r="T9" s="5" t="s">
         <v>107</v>
       </c>
       <c r="U9" s="5"/>
@@ -2209,7 +2785,7 @@
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" ht="14.25" spans="1:20">
       <c r="A10" s="3">
         <v>10140</v>
       </c>
@@ -2265,11 +2841,11 @@
       <c r="S10" s="2">
         <v>3200</v>
       </c>
-      <c r="T10" s="8" t="s">
+      <c r="T10" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" ht="14.25" spans="1:20">
       <c r="A11" s="5">
         <v>13030</v>
       </c>
@@ -2323,11 +2899,11 @@
       <c r="S11" s="2">
         <v>2000</v>
       </c>
-      <c r="T11" s="8" t="s">
+      <c r="T11" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" ht="24" customHeight="1" spans="1:25">
       <c r="A12" s="3">
         <v>10090</v>
       </c>
@@ -2383,7 +2959,7 @@
       <c r="S12" s="7">
         <v>2000</v>
       </c>
-      <c r="T12" s="8" t="s">
+      <c r="T12" s="5" t="s">
         <v>136</v>
       </c>
       <c r="U12" s="5"/>
@@ -2392,7 +2968,7 @@
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" ht="14.25" spans="1:20">
       <c r="A13" s="5">
         <v>13040</v>
       </c>
@@ -2448,11 +3024,11 @@
       <c r="S13" s="2">
         <v>5000</v>
       </c>
-      <c r="T13" s="8" t="s">
+      <c r="T13" s="5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" ht="14.25" spans="1:20">
       <c r="A14" s="3">
         <v>10160</v>
       </c>
@@ -2508,11 +3084,11 @@
       <c r="S14" s="2">
         <v>1200</v>
       </c>
-      <c r="T14" s="8" t="s">
+      <c r="T14" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" ht="14.25" spans="1:20">
       <c r="A15" s="3">
         <v>10170</v>
       </c>
@@ -2568,11 +3144,11 @@
       <c r="S15" s="2">
         <v>3000</v>
       </c>
-      <c r="T15" s="8" t="s">
+      <c r="T15" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" ht="14.25" spans="1:20">
       <c r="A16" s="5">
         <v>13050</v>
       </c>
@@ -2626,43 +3202,43 @@
       <c r="S16" s="2">
         <v>5000</v>
       </c>
-      <c r="T16" s="8" t="s">
+      <c r="T16" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>10100</v>
-      </c>
-      <c r="B17" s="3">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0</v>
-      </c>
-      <c r="D17" s="3">
-        <v>3</v>
-      </c>
-      <c r="E17" s="3">
-        <v>100</v>
-      </c>
-      <c r="F17" s="3">
+    <row r="17" ht="14.25" spans="1:20">
+      <c r="A17" s="5">
+        <v>13060</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
         <v>5</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="1" t="s">
+      <c r="G17" s="5"/>
+      <c r="H17" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J17" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="5">
         <v>1</v>
       </c>
       <c r="M17" s="5" t="s">
@@ -2680,82 +3256,77 @@
       <c r="Q17" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="R17" s="3">
-        <v>10100</v>
-      </c>
-      <c r="S17" s="7">
-        <v>3500</v>
-      </c>
-      <c r="T17" s="8" t="s">
+      <c r="R17" s="5"/>
+      <c r="S17" s="2">
+        <v>6000</v>
+      </c>
+      <c r="T17" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>13060</v>
-      </c>
-      <c r="B18" s="5">
-        <v>1</v>
-      </c>
-      <c r="C18" s="5">
-        <v>0</v>
-      </c>
-      <c r="D18" s="5">
-        <v>1</v>
-      </c>
-      <c r="E18" s="5">
-        <v>0</v>
-      </c>
-      <c r="F18" s="5">
+    <row r="18" ht="14.25" spans="1:20">
+      <c r="A18" s="3">
+        <v>10120</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>5</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5" t="s">
+      <c r="G18" s="3"/>
+      <c r="H18" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J18" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="L18" s="3">
+        <v>1</v>
+      </c>
+      <c r="M18" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="L18" s="5">
-        <v>1</v>
-      </c>
-      <c r="M18" s="5" t="s">
+      <c r="N18" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="N18" s="5" t="s">
+      <c r="O18" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="O18" s="5" t="s">
+      <c r="P18" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="P18" s="5" t="s">
+      <c r="Q18" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="Q18" s="5" t="s">
+      <c r="R18" s="3">
+        <v>10020</v>
+      </c>
+      <c r="S18" s="2">
+        <v>1800</v>
+      </c>
+      <c r="T18" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="R18" s="5"/>
-      <c r="S18" s="2">
-        <v>6000</v>
-      </c>
-      <c r="T18" s="8" t="s">
-        <v>194</v>
-      </c>
     </row>
-    <row r="19" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="19" ht="14.25" spans="1:20">
       <c r="A19" s="3">
-        <v>10120</v>
+        <v>10200</v>
       </c>
       <c r="B19" s="3">
         <v>1</v>
@@ -2764,7 +3335,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E19" s="3">
         <v>0</v>
@@ -2773,17 +3344,17 @@
         <v>5</v>
       </c>
       <c r="G19" s="3"/>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="J19" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="K19" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="L19" s="3">
         <v>1</v>
@@ -2804,18 +3375,18 @@
         <v>202</v>
       </c>
       <c r="R19" s="3">
-        <v>10020</v>
+        <v>10200</v>
       </c>
       <c r="S19" s="2">
-        <v>1800</v>
-      </c>
-      <c r="T19" s="8" t="s">
+        <v>5000</v>
+      </c>
+      <c r="T19" s="5" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="20" ht="26" customHeight="1" spans="1:25">
       <c r="A20" s="3">
-        <v>10200</v>
+        <v>10100</v>
       </c>
       <c r="B20" s="3">
         <v>1</v>
@@ -2827,7 +3398,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>5</v>
@@ -2843,7 +3414,7 @@
         <v>206</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="L20" s="3">
         <v>1</v>
@@ -2864,16 +3435,21 @@
         <v>211</v>
       </c>
       <c r="R20" s="3">
-        <v>10200</v>
-      </c>
-      <c r="S20" s="2">
-        <v>5000</v>
-      </c>
-      <c r="T20" s="8" t="s">
+        <v>10100</v>
+      </c>
+      <c r="S20" s="7">
+        <v>3500</v>
+      </c>
+      <c r="T20" s="5" t="s">
         <v>212</v>
       </c>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" ht="14.25" spans="1:20">
       <c r="A21" s="3">
         <v>12020</v>
       </c>
@@ -2926,11 +3502,11 @@
       <c r="S21" s="2">
         <v>0</v>
       </c>
-      <c r="T21" s="8" t="s">
+      <c r="T21" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" ht="15" customHeight="1" spans="1:20">
       <c r="A22" s="5">
         <v>13020</v>
       </c>
@@ -2958,19 +3534,19 @@
         <v>214</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="L22" s="3">
         <v>1</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="P22" s="5" t="s">
         <v>220</v>
@@ -2984,11 +3560,11 @@
       <c r="S22" s="2">
         <v>0</v>
       </c>
-      <c r="T22" s="8" t="s">
+      <c r="T22" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" ht="14.25" spans="1:20">
       <c r="A23" s="5">
         <v>13010</v>
       </c>
@@ -3016,19 +3592,19 @@
         <v>214</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="L23" s="3">
         <v>1</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="N23" s="5" t="s">
         <v>223</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="P23" s="5" t="s">
         <v>224</v>
@@ -3042,11 +3618,11 @@
       <c r="S23" s="2">
         <v>0</v>
       </c>
-      <c r="T23" s="8" t="s">
+      <c r="T23" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" ht="14.25" spans="1:20">
       <c r="A24" s="3">
         <v>12010</v>
       </c>
@@ -3099,11 +3675,11 @@
       <c r="S24" s="2">
         <v>0</v>
       </c>
-      <c r="T24" s="8" t="s">
+      <c r="T24" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" ht="14.25" spans="1:20">
       <c r="A25" s="3">
         <v>11020</v>
       </c>
@@ -3156,11 +3732,11 @@
       <c r="S25" s="2">
         <v>0</v>
       </c>
-      <c r="T25" s="8" t="s">
-        <v>184</v>
+      <c r="T25" s="5" t="s">
+        <v>212</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="26" ht="15.75" spans="1:20">
       <c r="A26" s="3">
         <v>11010</v>
       </c>
@@ -3213,11 +3789,11 @@
       <c r="S26" s="2">
         <v>0</v>
       </c>
-      <c r="T26" s="8" t="s">
-        <v>184</v>
+      <c r="T26" s="5" t="s">
+        <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" ht="14.25" spans="1:18">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -3237,7 +3813,7 @@
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" ht="14.25" spans="1:18">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -3257,7 +3833,7 @@
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" ht="14.25" spans="1:18">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -3277,7 +3853,7 @@
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" ht="14.25" spans="1:18">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -3297,7 +3873,7 @@
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" ht="14.25" spans="1:18">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -3317,7 +3893,7 @@
       <c r="Q31" s="5"/>
       <c r="R31" s="5"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" ht="14.25" spans="1:18">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -3337,7 +3913,7 @@
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" ht="14.25" spans="1:18">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -3357,7 +3933,7 @@
       <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" ht="14.25" spans="1:18">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -3377,7 +3953,7 @@
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" ht="14.25" spans="1:18">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -3397,7 +3973,7 @@
       <c r="Q35" s="5"/>
       <c r="R35" s="5"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" ht="14.25" spans="1:18">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -3417,7 +3993,7 @@
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" ht="14.25" spans="1:18">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -3437,7 +4013,7 @@
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" ht="14.25" spans="1:18">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -3457,7 +4033,7 @@
       <c r="Q38" s="5"/>
       <c r="R38" s="5"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" ht="14.25" spans="1:18">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -3477,7 +4053,7 @@
       <c r="Q39" s="5"/>
       <c r="R39" s="5"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" ht="14.25" spans="1:18">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -3497,7 +4073,7 @@
       <c r="Q40" s="5"/>
       <c r="R40" s="5"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" ht="14.25" spans="1:18">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -3517,7 +4093,7 @@
       <c r="Q41" s="5"/>
       <c r="R41" s="5"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" ht="14.25" spans="1:18">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -3538,8 +4114,8 @@
       <c r="R42" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>